--- a/template.xlsx
+++ b/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11325" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11325" tabRatio="500" activeTab="5"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="갑지" sheetId="1" r:id="rId4"/>
@@ -26,10 +26,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <x:si>
-    <x:t>용 역 비</x:t>
+    <x:t>과 장</x:t>
   </x:si>
   <x:si>
-    <x:t>발주기관</x:t>
+    <x:t>팀 장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>:</x:t>
   </x:si>
   <x:si>
     <x:t>담당자</x:t>
@@ -38,13 +41,10 @@
     <x:t>심사자</x:t>
   </x:si>
   <x:si>
-    <x:t>팀 장</x:t>
+    <x:t>용 역 비</x:t>
   </x:si>
   <x:si>
-    <x:t>:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과 장</x:t>
+    <x:t>발주기관</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -228,34 +228,34 @@
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="10">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -582,8 +582,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:N26"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="I9" activeCellId="0" sqref="I9:I9"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="S21" activeCellId="0" sqref="S21:S21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -595,22 +595,22 @@
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="2"/>
       <x:c r="C1" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D1" s="2"/>
       <x:c r="E1" s="2"/>
       <x:c r="F1" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1" s="2"/>
       <x:c r="H1" s="2"/>
       <x:c r="I1" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J1" s="2"/>
       <x:c r="K1" s="2"/>
       <x:c r="L1" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M1" s="2"/>
       <x:c r="N1" s="3"/>
@@ -909,10 +909,10 @@
       <x:c r="C20" s="5"/>
       <x:c r="D20" s="5"/>
       <x:c r="E20" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F20" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G20" s="5"/>
       <x:c r="H20" s="5"/>
@@ -945,10 +945,10 @@
       <x:c r="C22" s="5"/>
       <x:c r="D22" s="5"/>
       <x:c r="E22" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F22" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G22" s="5"/>
       <x:c r="H22" s="5"/>
@@ -1035,13 +1035,13 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:A1"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="D9" activeCellId="0" sqref="D9:D9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
 </x:worksheet>
@@ -1052,13 +1052,13 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:A1"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
 </x:worksheet>
@@ -1069,13 +1069,13 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:A1"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
 </x:worksheet>
@@ -1086,13 +1086,13 @@
   <x:sheetPr codeName="Sheet5"/>
   <x:dimension ref="A1:A1"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="N15" activeCellId="0" sqref="N15:N15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
 </x:worksheet>
@@ -1103,8 +1103,8 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:A1"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="P11" activeCellId="0" sqref="P11:P11"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="J26" activeCellId="0" sqref="J26:J26"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>담당자</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>발주기관</t>
+  </si>
+  <si>
+    <t>내     역     서</t>
   </si>
   <si>
     <t>공 종</t>
@@ -66,6 +69,9 @@
     <t>비 고</t>
   </si>
   <si>
+    <t>투입인원수 산정기준</t>
+  </si>
+  <si>
     <t>업 무 구 분</t>
   </si>
   <si>
@@ -90,6 +96,17 @@
     <t>기간</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="25.0"/>
+      </rPr>
+      <t>투입인원수 산정기준</t>
+    </r>
+  </si>
+  <si>
     <t>환산계수</t>
   </si>
   <si>
@@ -109,6 +126,17 @@
   </si>
   <si>
     <t>초급기술자 - 계산식</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="25.0"/>
+      </rPr>
+      <t>노 임 단 가</t>
+    </r>
   </si>
   <si>
     <t>직 종 명</t>
@@ -133,6 +161,9 @@
   </si>
   <si>
     <t>기타</t>
+  </si>
+  <si>
+    <t>손 해 보 험 요 율</t>
   </si>
   <si>
     <t>공 사 종 류</t>
@@ -185,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -213,6 +244,12 @@
     </font>
     <font>
       <b/>
+      <sz val="25.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -229,15 +266,21 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3EB"/>
+        <bgColor rgb="FFD3D3EB"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border/>
     <border>
       <left style="thick">
@@ -417,6 +460,36 @@
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
@@ -444,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -541,67 +614,76 @@
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2284,1373 +2366,1379 @@
     <col customWidth="1" min="3" max="8" width="16.0"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50.25" customHeight="1">
+    <row r="1" ht="40.5" customHeight="1">
       <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" ht="50.25" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="C2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="D2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="F2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="G2" s="36" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" ht="33.75" customHeight="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="37" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" ht="33.75" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" ht="33.75" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" ht="33.75" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" ht="33.75" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" ht="33.75" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" ht="33.75" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-    </row>
-    <row r="9" ht="20.25" customHeight="1">
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="9" ht="33.75" customHeight="1">
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" ht="20.25" customHeight="1">
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" ht="20.25" customHeight="1">
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
     </row>
     <row r="12" ht="20.25" customHeight="1">
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" ht="20.25" customHeight="1">
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" ht="20.25" customHeight="1">
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" ht="20.25" customHeight="1">
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" ht="20.25" customHeight="1">
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" ht="20.25" customHeight="1">
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" ht="20.25" customHeight="1">
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" ht="20.25" customHeight="1">
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-    </row>
-    <row r="20" ht="3.75" customHeight="1">
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" ht="20.25" customHeight="1">
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" ht="3.75" customHeight="1">
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="E95" s="37"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="37"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="37"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="37"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="E100" s="37"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="37"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="40"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="E101" s="37"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="37"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="37"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="37"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="37"/>
-      <c r="H104" s="37"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="E105" s="37"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="37"/>
-      <c r="H105" s="37"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="40"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="37"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="E107" s="37"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="37"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="37"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="40"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="E109" s="37"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="37"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="40"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="40"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="E110" s="37"/>
-      <c r="F110" s="37"/>
-      <c r="G110" s="37"/>
-      <c r="H110" s="37"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="40"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="E111" s="37"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="37"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="40"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="E112" s="37"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="37"/>
+      <c r="E112" s="40"/>
+      <c r="F112" s="40"/>
+      <c r="G112" s="40"/>
+      <c r="H112" s="40"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="E113" s="37"/>
-      <c r="F113" s="37"/>
-      <c r="G113" s="37"/>
-      <c r="H113" s="37"/>
+      <c r="E113" s="40"/>
+      <c r="F113" s="40"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="40"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="E114" s="37"/>
-      <c r="F114" s="37"/>
-      <c r="G114" s="37"/>
-      <c r="H114" s="37"/>
+      <c r="E114" s="40"/>
+      <c r="F114" s="40"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="40"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="E115" s="37"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="37"/>
-      <c r="H115" s="37"/>
+      <c r="E115" s="40"/>
+      <c r="F115" s="40"/>
+      <c r="G115" s="40"/>
+      <c r="H115" s="40"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="E116" s="37"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="37"/>
+      <c r="E116" s="40"/>
+      <c r="F116" s="40"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="40"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="E117" s="37"/>
-      <c r="F117" s="37"/>
-      <c r="G117" s="37"/>
-      <c r="H117" s="37"/>
+      <c r="E117" s="40"/>
+      <c r="F117" s="40"/>
+      <c r="G117" s="40"/>
+      <c r="H117" s="40"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="E118" s="37"/>
-      <c r="F118" s="37"/>
-      <c r="G118" s="37"/>
-      <c r="H118" s="37"/>
+      <c r="E118" s="40"/>
+      <c r="F118" s="40"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="40"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="E119" s="37"/>
-      <c r="F119" s="37"/>
-      <c r="G119" s="37"/>
-      <c r="H119" s="37"/>
+      <c r="E119" s="40"/>
+      <c r="F119" s="40"/>
+      <c r="G119" s="40"/>
+      <c r="H119" s="40"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="E120" s="37"/>
-      <c r="F120" s="37"/>
-      <c r="G120" s="37"/>
-      <c r="H120" s="37"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="40"/>
+      <c r="G120" s="40"/>
+      <c r="H120" s="40"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="37"/>
+      <c r="E121" s="40"/>
+      <c r="F121" s="40"/>
+      <c r="G121" s="40"/>
+      <c r="H121" s="40"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="E122" s="37"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="37"/>
-      <c r="H122" s="37"/>
+      <c r="E122" s="40"/>
+      <c r="F122" s="40"/>
+      <c r="G122" s="40"/>
+      <c r="H122" s="40"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="E123" s="37"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="37"/>
-      <c r="H123" s="37"/>
+      <c r="E123" s="40"/>
+      <c r="F123" s="40"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="40"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="E124" s="37"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="37"/>
-      <c r="H124" s="37"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="40"/>
+      <c r="G124" s="40"/>
+      <c r="H124" s="40"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
+      <c r="E125" s="40"/>
+      <c r="F125" s="40"/>
+      <c r="G125" s="40"/>
+      <c r="H125" s="40"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="40"/>
+      <c r="G126" s="40"/>
+      <c r="H126" s="40"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
+      <c r="E127" s="40"/>
+      <c r="F127" s="40"/>
+      <c r="G127" s="40"/>
+      <c r="H127" s="40"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
+      <c r="E128" s="40"/>
+      <c r="F128" s="40"/>
+      <c r="G128" s="40"/>
+      <c r="H128" s="40"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="E129" s="37"/>
-      <c r="F129" s="37"/>
-      <c r="G129" s="37"/>
-      <c r="H129" s="37"/>
+      <c r="E129" s="40"/>
+      <c r="F129" s="40"/>
+      <c r="G129" s="40"/>
+      <c r="H129" s="40"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="37"/>
+      <c r="E130" s="40"/>
+      <c r="F130" s="40"/>
+      <c r="G130" s="40"/>
+      <c r="H130" s="40"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="E131" s="37"/>
-      <c r="F131" s="37"/>
-      <c r="G131" s="37"/>
-      <c r="H131" s="37"/>
+      <c r="E131" s="40"/>
+      <c r="F131" s="40"/>
+      <c r="G131" s="40"/>
+      <c r="H131" s="40"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="E132" s="37"/>
-      <c r="F132" s="37"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="37"/>
+      <c r="E132" s="40"/>
+      <c r="F132" s="40"/>
+      <c r="G132" s="40"/>
+      <c r="H132" s="40"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
+      <c r="E133" s="40"/>
+      <c r="F133" s="40"/>
+      <c r="G133" s="40"/>
+      <c r="H133" s="40"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="37"/>
+      <c r="E134" s="40"/>
+      <c r="F134" s="40"/>
+      <c r="G134" s="40"/>
+      <c r="H134" s="40"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="E135" s="37"/>
-      <c r="F135" s="37"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="37"/>
+      <c r="E135" s="40"/>
+      <c r="F135" s="40"/>
+      <c r="G135" s="40"/>
+      <c r="H135" s="40"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="E136" s="37"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="37"/>
+      <c r="E136" s="40"/>
+      <c r="F136" s="40"/>
+      <c r="G136" s="40"/>
+      <c r="H136" s="40"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="E137" s="37"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="37"/>
+      <c r="E137" s="40"/>
+      <c r="F137" s="40"/>
+      <c r="G137" s="40"/>
+      <c r="H137" s="40"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="37"/>
+      <c r="E138" s="40"/>
+      <c r="F138" s="40"/>
+      <c r="G138" s="40"/>
+      <c r="H138" s="40"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="E139" s="37"/>
-      <c r="F139" s="37"/>
-      <c r="G139" s="37"/>
-      <c r="H139" s="37"/>
+      <c r="E139" s="40"/>
+      <c r="F139" s="40"/>
+      <c r="G139" s="40"/>
+      <c r="H139" s="40"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="37"/>
+      <c r="E140" s="40"/>
+      <c r="F140" s="40"/>
+      <c r="G140" s="40"/>
+      <c r="H140" s="40"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="37"/>
-      <c r="H141" s="37"/>
+      <c r="E141" s="40"/>
+      <c r="F141" s="40"/>
+      <c r="G141" s="40"/>
+      <c r="H141" s="40"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="E142" s="37"/>
-      <c r="F142" s="37"/>
-      <c r="G142" s="37"/>
-      <c r="H142" s="37"/>
+      <c r="E142" s="40"/>
+      <c r="F142" s="40"/>
+      <c r="G142" s="40"/>
+      <c r="H142" s="40"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="E143" s="37"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="37"/>
-      <c r="H143" s="37"/>
+      <c r="E143" s="40"/>
+      <c r="F143" s="40"/>
+      <c r="G143" s="40"/>
+      <c r="H143" s="40"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="E144" s="37"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="37"/>
-      <c r="H144" s="37"/>
+      <c r="E144" s="40"/>
+      <c r="F144" s="40"/>
+      <c r="G144" s="40"/>
+      <c r="H144" s="40"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="E145" s="37"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="37"/>
-      <c r="H145" s="37"/>
+      <c r="E145" s="40"/>
+      <c r="F145" s="40"/>
+      <c r="G145" s="40"/>
+      <c r="H145" s="40"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="E146" s="37"/>
-      <c r="F146" s="37"/>
-      <c r="G146" s="37"/>
-      <c r="H146" s="37"/>
+      <c r="E146" s="40"/>
+      <c r="F146" s="40"/>
+      <c r="G146" s="40"/>
+      <c r="H146" s="40"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="E147" s="37"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="37"/>
-      <c r="H147" s="37"/>
+      <c r="E147" s="40"/>
+      <c r="F147" s="40"/>
+      <c r="G147" s="40"/>
+      <c r="H147" s="40"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="E148" s="37"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="37"/>
-      <c r="H148" s="37"/>
+      <c r="E148" s="40"/>
+      <c r="F148" s="40"/>
+      <c r="G148" s="40"/>
+      <c r="H148" s="40"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="E149" s="37"/>
-      <c r="F149" s="37"/>
-      <c r="G149" s="37"/>
-      <c r="H149" s="37"/>
+      <c r="E149" s="40"/>
+      <c r="F149" s="40"/>
+      <c r="G149" s="40"/>
+      <c r="H149" s="40"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="E150" s="37"/>
-      <c r="F150" s="37"/>
-      <c r="G150" s="37"/>
-      <c r="H150" s="37"/>
+      <c r="E150" s="40"/>
+      <c r="F150" s="40"/>
+      <c r="G150" s="40"/>
+      <c r="H150" s="40"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="E151" s="37"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="37"/>
-      <c r="H151" s="37"/>
+      <c r="E151" s="40"/>
+      <c r="F151" s="40"/>
+      <c r="G151" s="40"/>
+      <c r="H151" s="40"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="E152" s="37"/>
-      <c r="F152" s="37"/>
-      <c r="G152" s="37"/>
-      <c r="H152" s="37"/>
+      <c r="E152" s="40"/>
+      <c r="F152" s="40"/>
+      <c r="G152" s="40"/>
+      <c r="H152" s="40"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="E153" s="37"/>
-      <c r="F153" s="37"/>
-      <c r="G153" s="37"/>
-      <c r="H153" s="37"/>
+      <c r="E153" s="40"/>
+      <c r="F153" s="40"/>
+      <c r="G153" s="40"/>
+      <c r="H153" s="40"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="E154" s="37"/>
-      <c r="F154" s="37"/>
-      <c r="G154" s="37"/>
-      <c r="H154" s="37"/>
+      <c r="E154" s="40"/>
+      <c r="F154" s="40"/>
+      <c r="G154" s="40"/>
+      <c r="H154" s="40"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="E155" s="37"/>
-      <c r="F155" s="37"/>
-      <c r="G155" s="37"/>
-      <c r="H155" s="37"/>
+      <c r="E155" s="40"/>
+      <c r="F155" s="40"/>
+      <c r="G155" s="40"/>
+      <c r="H155" s="40"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="E156" s="37"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="37"/>
-      <c r="H156" s="37"/>
+      <c r="E156" s="40"/>
+      <c r="F156" s="40"/>
+      <c r="G156" s="40"/>
+      <c r="H156" s="40"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="E157" s="37"/>
-      <c r="F157" s="37"/>
-      <c r="G157" s="37"/>
-      <c r="H157" s="37"/>
+      <c r="E157" s="40"/>
+      <c r="F157" s="40"/>
+      <c r="G157" s="40"/>
+      <c r="H157" s="40"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="E158" s="37"/>
-      <c r="F158" s="37"/>
-      <c r="G158" s="37"/>
-      <c r="H158" s="37"/>
+      <c r="E158" s="40"/>
+      <c r="F158" s="40"/>
+      <c r="G158" s="40"/>
+      <c r="H158" s="40"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="E159" s="37"/>
-      <c r="F159" s="37"/>
-      <c r="G159" s="37"/>
-      <c r="H159" s="37"/>
+      <c r="E159" s="40"/>
+      <c r="F159" s="40"/>
+      <c r="G159" s="40"/>
+      <c r="H159" s="40"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="E160" s="37"/>
-      <c r="F160" s="37"/>
-      <c r="G160" s="37"/>
-      <c r="H160" s="37"/>
+      <c r="E160" s="40"/>
+      <c r="F160" s="40"/>
+      <c r="G160" s="40"/>
+      <c r="H160" s="40"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="E161" s="37"/>
-      <c r="F161" s="37"/>
-      <c r="G161" s="37"/>
-      <c r="H161" s="37"/>
+      <c r="E161" s="40"/>
+      <c r="F161" s="40"/>
+      <c r="G161" s="40"/>
+      <c r="H161" s="40"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="E162" s="37"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="37"/>
-      <c r="H162" s="37"/>
+      <c r="E162" s="40"/>
+      <c r="F162" s="40"/>
+      <c r="G162" s="40"/>
+      <c r="H162" s="40"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="E163" s="37"/>
-      <c r="F163" s="37"/>
-      <c r="G163" s="37"/>
-      <c r="H163" s="37"/>
+      <c r="E163" s="40"/>
+      <c r="F163" s="40"/>
+      <c r="G163" s="40"/>
+      <c r="H163" s="40"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="E164" s="37"/>
-      <c r="F164" s="37"/>
-      <c r="G164" s="37"/>
-      <c r="H164" s="37"/>
+      <c r="E164" s="40"/>
+      <c r="F164" s="40"/>
+      <c r="G164" s="40"/>
+      <c r="H164" s="40"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="E165" s="37"/>
-      <c r="F165" s="37"/>
-      <c r="G165" s="37"/>
-      <c r="H165" s="37"/>
+      <c r="E165" s="40"/>
+      <c r="F165" s="40"/>
+      <c r="G165" s="40"/>
+      <c r="H165" s="40"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="E166" s="37"/>
-      <c r="F166" s="37"/>
-      <c r="G166" s="37"/>
-      <c r="H166" s="37"/>
+      <c r="E166" s="40"/>
+      <c r="F166" s="40"/>
+      <c r="G166" s="40"/>
+      <c r="H166" s="40"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="E167" s="37"/>
-      <c r="F167" s="37"/>
-      <c r="G167" s="37"/>
-      <c r="H167" s="37"/>
+      <c r="E167" s="40"/>
+      <c r="F167" s="40"/>
+      <c r="G167" s="40"/>
+      <c r="H167" s="40"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="E168" s="37"/>
-      <c r="F168" s="37"/>
-      <c r="G168" s="37"/>
-      <c r="H168" s="37"/>
+      <c r="E168" s="40"/>
+      <c r="F168" s="40"/>
+      <c r="G168" s="40"/>
+      <c r="H168" s="40"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="E169" s="37"/>
-      <c r="F169" s="37"/>
-      <c r="G169" s="37"/>
-      <c r="H169" s="37"/>
+      <c r="E169" s="40"/>
+      <c r="F169" s="40"/>
+      <c r="G169" s="40"/>
+      <c r="H169" s="40"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="E170" s="37"/>
-      <c r="F170" s="37"/>
-      <c r="G170" s="37"/>
-      <c r="H170" s="37"/>
+      <c r="E170" s="40"/>
+      <c r="F170" s="40"/>
+      <c r="G170" s="40"/>
+      <c r="H170" s="40"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="E171" s="37"/>
-      <c r="F171" s="37"/>
-      <c r="G171" s="37"/>
-      <c r="H171" s="37"/>
+      <c r="E171" s="40"/>
+      <c r="F171" s="40"/>
+      <c r="G171" s="40"/>
+      <c r="H171" s="40"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="E172" s="37"/>
-      <c r="F172" s="37"/>
-      <c r="G172" s="37"/>
-      <c r="H172" s="37"/>
+      <c r="E172" s="40"/>
+      <c r="F172" s="40"/>
+      <c r="G172" s="40"/>
+      <c r="H172" s="40"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="E173" s="37"/>
-      <c r="F173" s="37"/>
-      <c r="G173" s="37"/>
-      <c r="H173" s="37"/>
+      <c r="E173" s="40"/>
+      <c r="F173" s="40"/>
+      <c r="G173" s="40"/>
+      <c r="H173" s="40"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="E174" s="37"/>
-      <c r="F174" s="37"/>
-      <c r="G174" s="37"/>
-      <c r="H174" s="37"/>
+      <c r="E174" s="40"/>
+      <c r="F174" s="40"/>
+      <c r="G174" s="40"/>
+      <c r="H174" s="40"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="E175" s="37"/>
-      <c r="F175" s="37"/>
-      <c r="G175" s="37"/>
-      <c r="H175" s="37"/>
+      <c r="E175" s="40"/>
+      <c r="F175" s="40"/>
+      <c r="G175" s="40"/>
+      <c r="H175" s="40"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="E176" s="37"/>
-      <c r="F176" s="37"/>
-      <c r="G176" s="37"/>
-      <c r="H176" s="37"/>
+      <c r="E176" s="40"/>
+      <c r="F176" s="40"/>
+      <c r="G176" s="40"/>
+      <c r="H176" s="40"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="E177" s="37"/>
-      <c r="F177" s="37"/>
-      <c r="G177" s="37"/>
-      <c r="H177" s="37"/>
+      <c r="E177" s="40"/>
+      <c r="F177" s="40"/>
+      <c r="G177" s="40"/>
+      <c r="H177" s="40"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="E178" s="37"/>
-      <c r="F178" s="37"/>
-      <c r="G178" s="37"/>
-      <c r="H178" s="37"/>
+      <c r="E178" s="40"/>
+      <c r="F178" s="40"/>
+      <c r="G178" s="40"/>
+      <c r="H178" s="40"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="E179" s="37"/>
-      <c r="F179" s="37"/>
-      <c r="G179" s="37"/>
-      <c r="H179" s="37"/>
+      <c r="E179" s="40"/>
+      <c r="F179" s="40"/>
+      <c r="G179" s="40"/>
+      <c r="H179" s="40"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="E180" s="37"/>
-      <c r="F180" s="37"/>
-      <c r="G180" s="37"/>
-      <c r="H180" s="37"/>
+      <c r="E180" s="40"/>
+      <c r="F180" s="40"/>
+      <c r="G180" s="40"/>
+      <c r="H180" s="40"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="E181" s="37"/>
-      <c r="F181" s="37"/>
-      <c r="G181" s="37"/>
-      <c r="H181" s="37"/>
+      <c r="E181" s="40"/>
+      <c r="F181" s="40"/>
+      <c r="G181" s="40"/>
+      <c r="H181" s="40"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="E182" s="37"/>
-      <c r="F182" s="37"/>
-      <c r="G182" s="37"/>
-      <c r="H182" s="37"/>
+      <c r="E182" s="40"/>
+      <c r="F182" s="40"/>
+      <c r="G182" s="40"/>
+      <c r="H182" s="40"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="E183" s="37"/>
-      <c r="F183" s="37"/>
-      <c r="G183" s="37"/>
-      <c r="H183" s="37"/>
+      <c r="E183" s="40"/>
+      <c r="F183" s="40"/>
+      <c r="G183" s="40"/>
+      <c r="H183" s="40"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="E184" s="37"/>
-      <c r="F184" s="37"/>
-      <c r="G184" s="37"/>
-      <c r="H184" s="37"/>
+      <c r="E184" s="40"/>
+      <c r="F184" s="40"/>
+      <c r="G184" s="40"/>
+      <c r="H184" s="40"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="E185" s="37"/>
-      <c r="F185" s="37"/>
-      <c r="G185" s="37"/>
-      <c r="H185" s="37"/>
+      <c r="E185" s="40"/>
+      <c r="F185" s="40"/>
+      <c r="G185" s="40"/>
+      <c r="H185" s="40"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="E186" s="37"/>
-      <c r="F186" s="37"/>
-      <c r="G186" s="37"/>
-      <c r="H186" s="37"/>
+      <c r="E186" s="40"/>
+      <c r="F186" s="40"/>
+      <c r="G186" s="40"/>
+      <c r="H186" s="40"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="E187" s="37"/>
-      <c r="F187" s="37"/>
-      <c r="G187" s="37"/>
-      <c r="H187" s="37"/>
+      <c r="E187" s="40"/>
+      <c r="F187" s="40"/>
+      <c r="G187" s="40"/>
+      <c r="H187" s="40"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="E188" s="37"/>
-      <c r="F188" s="37"/>
-      <c r="G188" s="37"/>
-      <c r="H188" s="37"/>
+      <c r="E188" s="40"/>
+      <c r="F188" s="40"/>
+      <c r="G188" s="40"/>
+      <c r="H188" s="40"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="E189" s="37"/>
-      <c r="F189" s="37"/>
-      <c r="G189" s="37"/>
-      <c r="H189" s="37"/>
+      <c r="E189" s="40"/>
+      <c r="F189" s="40"/>
+      <c r="G189" s="40"/>
+      <c r="H189" s="40"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="E190" s="37"/>
-      <c r="F190" s="37"/>
-      <c r="G190" s="37"/>
-      <c r="H190" s="37"/>
+      <c r="E190" s="40"/>
+      <c r="F190" s="40"/>
+      <c r="G190" s="40"/>
+      <c r="H190" s="40"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="E191" s="37"/>
-      <c r="F191" s="37"/>
-      <c r="G191" s="37"/>
-      <c r="H191" s="37"/>
+      <c r="E191" s="40"/>
+      <c r="F191" s="40"/>
+      <c r="G191" s="40"/>
+      <c r="H191" s="40"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="E192" s="37"/>
-      <c r="F192" s="37"/>
-      <c r="G192" s="37"/>
-      <c r="H192" s="37"/>
+      <c r="E192" s="40"/>
+      <c r="F192" s="40"/>
+      <c r="G192" s="40"/>
+      <c r="H192" s="40"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="E193" s="37"/>
-      <c r="F193" s="37"/>
-      <c r="G193" s="37"/>
-      <c r="H193" s="37"/>
+      <c r="E193" s="40"/>
+      <c r="F193" s="40"/>
+      <c r="G193" s="40"/>
+      <c r="H193" s="40"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="E194" s="37"/>
-      <c r="F194" s="37"/>
-      <c r="G194" s="37"/>
-      <c r="H194" s="37"/>
+      <c r="E194" s="40"/>
+      <c r="F194" s="40"/>
+      <c r="G194" s="40"/>
+      <c r="H194" s="40"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="E195" s="37"/>
-      <c r="F195" s="37"/>
-      <c r="G195" s="37"/>
-      <c r="H195" s="37"/>
+      <c r="E195" s="40"/>
+      <c r="F195" s="40"/>
+      <c r="G195" s="40"/>
+      <c r="H195" s="40"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="E196" s="37"/>
-      <c r="F196" s="37"/>
-      <c r="G196" s="37"/>
-      <c r="H196" s="37"/>
+      <c r="E196" s="40"/>
+      <c r="F196" s="40"/>
+      <c r="G196" s="40"/>
+      <c r="H196" s="40"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="E197" s="37"/>
-      <c r="F197" s="37"/>
-      <c r="G197" s="37"/>
-      <c r="H197" s="37"/>
+      <c r="E197" s="40"/>
+      <c r="F197" s="40"/>
+      <c r="G197" s="40"/>
+      <c r="H197" s="40"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="E198" s="37"/>
-      <c r="F198" s="37"/>
-      <c r="G198" s="37"/>
-      <c r="H198" s="37"/>
+      <c r="E198" s="40"/>
+      <c r="F198" s="40"/>
+      <c r="G198" s="40"/>
+      <c r="H198" s="40"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="E199" s="37"/>
-      <c r="F199" s="37"/>
-      <c r="G199" s="37"/>
-      <c r="H199" s="37"/>
+      <c r="E199" s="40"/>
+      <c r="F199" s="40"/>
+      <c r="G199" s="40"/>
+      <c r="H199" s="40"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="E200" s="37"/>
-      <c r="F200" s="37"/>
-      <c r="G200" s="37"/>
-      <c r="H200" s="37"/>
+      <c r="E200" s="40"/>
+      <c r="F200" s="40"/>
+      <c r="G200" s="40"/>
+      <c r="H200" s="40"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="E201" s="37"/>
-      <c r="F201" s="37"/>
-      <c r="G201" s="37"/>
-      <c r="H201" s="37"/>
+      <c r="E201" s="40"/>
+      <c r="F201" s="40"/>
+      <c r="G201" s="40"/>
+      <c r="H201" s="40"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="E202" s="37"/>
-      <c r="F202" s="37"/>
-      <c r="G202" s="37"/>
-      <c r="H202" s="37"/>
+      <c r="E202" s="40"/>
+      <c r="F202" s="40"/>
+      <c r="G202" s="40"/>
+      <c r="H202" s="40"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="E203" s="37"/>
-      <c r="F203" s="37"/>
-      <c r="G203" s="37"/>
-      <c r="H203" s="37"/>
+      <c r="E203" s="40"/>
+      <c r="F203" s="40"/>
+      <c r="G203" s="40"/>
+      <c r="H203" s="40"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="E204" s="37"/>
-      <c r="F204" s="37"/>
-      <c r="G204" s="37"/>
-      <c r="H204" s="37"/>
+      <c r="E204" s="40"/>
+      <c r="F204" s="40"/>
+      <c r="G204" s="40"/>
+      <c r="H204" s="40"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="E205" s="37"/>
-      <c r="F205" s="37"/>
-      <c r="G205" s="37"/>
-      <c r="H205" s="37"/>
+      <c r="E205" s="40"/>
+      <c r="F205" s="40"/>
+      <c r="G205" s="40"/>
+      <c r="H205" s="40"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="E206" s="37"/>
-      <c r="F206" s="37"/>
-      <c r="G206" s="37"/>
-      <c r="H206" s="37"/>
+      <c r="E206" s="40"/>
+      <c r="F206" s="40"/>
+      <c r="G206" s="40"/>
+      <c r="H206" s="40"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="E207" s="37"/>
-      <c r="F207" s="37"/>
-      <c r="G207" s="37"/>
-      <c r="H207" s="37"/>
+      <c r="E207" s="40"/>
+      <c r="F207" s="40"/>
+      <c r="G207" s="40"/>
+      <c r="H207" s="40"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="E208" s="37"/>
-      <c r="F208" s="37"/>
-      <c r="G208" s="37"/>
-      <c r="H208" s="37"/>
+      <c r="E208" s="40"/>
+      <c r="F208" s="40"/>
+      <c r="G208" s="40"/>
+      <c r="H208" s="40"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="E209" s="37"/>
-      <c r="F209" s="37"/>
-      <c r="G209" s="37"/>
-      <c r="H209" s="37"/>
+      <c r="E209" s="40"/>
+      <c r="F209" s="40"/>
+      <c r="G209" s="40"/>
+      <c r="H209" s="40"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="E210" s="37"/>
-      <c r="F210" s="37"/>
-      <c r="G210" s="37"/>
-      <c r="H210" s="37"/>
+      <c r="E210" s="40"/>
+      <c r="F210" s="40"/>
+      <c r="G210" s="40"/>
+      <c r="H210" s="40"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="E211" s="37"/>
-      <c r="F211" s="37"/>
-      <c r="G211" s="37"/>
-      <c r="H211" s="37"/>
+      <c r="E211" s="40"/>
+      <c r="F211" s="40"/>
+      <c r="G211" s="40"/>
+      <c r="H211" s="40"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="E212" s="37"/>
-      <c r="F212" s="37"/>
-      <c r="G212" s="37"/>
-      <c r="H212" s="37"/>
+      <c r="E212" s="40"/>
+      <c r="F212" s="40"/>
+      <c r="G212" s="40"/>
+      <c r="H212" s="40"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="E213" s="37"/>
-      <c r="F213" s="37"/>
-      <c r="G213" s="37"/>
-      <c r="H213" s="37"/>
+      <c r="E213" s="40"/>
+      <c r="F213" s="40"/>
+      <c r="G213" s="40"/>
+      <c r="H213" s="40"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="E214" s="37"/>
-      <c r="F214" s="37"/>
-      <c r="G214" s="37"/>
-      <c r="H214" s="37"/>
+      <c r="E214" s="40"/>
+      <c r="F214" s="40"/>
+      <c r="G214" s="40"/>
+      <c r="H214" s="40"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="E215" s="37"/>
-      <c r="F215" s="37"/>
-      <c r="G215" s="37"/>
-      <c r="H215" s="37"/>
+      <c r="E215" s="40"/>
+      <c r="F215" s="40"/>
+      <c r="G215" s="40"/>
+      <c r="H215" s="40"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="E216" s="37"/>
-      <c r="F216" s="37"/>
-      <c r="G216" s="37"/>
-      <c r="H216" s="37"/>
+      <c r="E216" s="40"/>
+      <c r="F216" s="40"/>
+      <c r="G216" s="40"/>
+      <c r="H216" s="40"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="E217" s="37"/>
-      <c r="F217" s="37"/>
-      <c r="G217" s="37"/>
-      <c r="H217" s="37"/>
+      <c r="E217" s="40"/>
+      <c r="F217" s="40"/>
+      <c r="G217" s="40"/>
+      <c r="H217" s="40"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="E218" s="37"/>
-      <c r="F218" s="37"/>
-      <c r="G218" s="37"/>
-      <c r="H218" s="37"/>
+      <c r="E218" s="40"/>
+      <c r="F218" s="40"/>
+      <c r="G218" s="40"/>
+      <c r="H218" s="40"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="E219" s="37"/>
-      <c r="F219" s="37"/>
-      <c r="G219" s="37"/>
-      <c r="H219" s="37"/>
+      <c r="E219" s="40"/>
+      <c r="F219" s="40"/>
+      <c r="G219" s="40"/>
+      <c r="H219" s="40"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="E220" s="37"/>
-      <c r="F220" s="37"/>
-      <c r="G220" s="37"/>
-      <c r="H220" s="37"/>
+      <c r="E220" s="40"/>
+      <c r="F220" s="40"/>
+      <c r="G220" s="40"/>
+      <c r="H220" s="40"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -4433,6 +4521,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.9843055605888367" footer="0.0" header="0.0" left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4457,313 +4548,324 @@
     <col customWidth="1" min="2" max="8" width="18.57"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50.25" customHeight="1">
+    <row r="1" ht="40.5" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" ht="50.25" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="C2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="D2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="F2" s="36" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="G2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="38"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="43"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="43"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="47"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="45"/>
+    </row>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -5735,11 +5837,14 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.9843055605888367" footer="0.0" header="0.0" left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="29" man="1"/>
+    <brk id="30" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" man="1"/>
@@ -5764,1393 +5869,1407 @@
     <col customWidth="1" min="10" max="14" width="32.43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50.25" customHeight="1">
+    <row r="1" ht="40.5" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+    </row>
+    <row r="2" ht="50.25" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>19</v>
+      <c r="B2" s="36" t="s">
+        <v>12</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="C2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="D2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="F2" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="33" t="s">
+      <c r="H2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="I2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="J2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="K2" s="36" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
+      <c r="L2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="46"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="49"/>
     </row>
     <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="46"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" ht="20.25" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="46"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" ht="20.25" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="46"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="49"/>
     </row>
     <row r="8" ht="20.25" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="46"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" ht="20.25" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="46"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="49"/>
     </row>
     <row r="10" ht="20.25" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="46"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="49"/>
     </row>
     <row r="11" ht="20.25" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="46"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" ht="20.25" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="46"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="49"/>
     </row>
     <row r="13" ht="20.25" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="46"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="49"/>
     </row>
     <row r="14" ht="20.25" customHeight="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="46"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="49"/>
     </row>
     <row r="15" ht="20.25" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="46"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="49"/>
     </row>
     <row r="16" ht="20.25" customHeight="1">
-      <c r="A16" s="43"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="46"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="49"/>
     </row>
     <row r="17" ht="20.25" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="46"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="49"/>
     </row>
     <row r="18" ht="20.25" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="46"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="49"/>
     </row>
     <row r="19" ht="20.25" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="46"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="49"/>
     </row>
     <row r="20" ht="20.25" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="46"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="49"/>
     </row>
     <row r="21" ht="20.25" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="46"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="49"/>
     </row>
     <row r="22" ht="20.25" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="46"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="49"/>
     </row>
     <row r="23" ht="20.25" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="46"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="49"/>
     </row>
     <row r="24" ht="20.25" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="46"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="49"/>
     </row>
     <row r="25" ht="20.25" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="46"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="49"/>
     </row>
     <row r="26" ht="20.25" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="46"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="49"/>
     </row>
     <row r="27" ht="20.25" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="46"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="49"/>
     </row>
     <row r="28" ht="20.25" customHeight="1">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="46"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="49"/>
     </row>
     <row r="29" ht="20.25" customHeight="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="46"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="49"/>
     </row>
     <row r="30" ht="20.25" customHeight="1">
-      <c r="A30" s="43"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="46"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="49"/>
     </row>
     <row r="31" ht="20.25" customHeight="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="46"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="49"/>
     </row>
     <row r="32" ht="20.25" customHeight="1">
-      <c r="A32" s="43"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="46"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="49"/>
     </row>
     <row r="33" ht="20.25" customHeight="1">
-      <c r="A33" s="43"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="46"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="49"/>
     </row>
     <row r="34" ht="20.25" customHeight="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="46"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="49"/>
     </row>
     <row r="35" ht="20.25" customHeight="1">
-      <c r="A35" s="43"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="46"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="49"/>
     </row>
     <row r="36" ht="20.25" customHeight="1">
-      <c r="A36" s="43"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="46"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="49"/>
     </row>
     <row r="37" ht="20.25" customHeight="1">
-      <c r="A37" s="43"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="46"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="49"/>
     </row>
     <row r="38" ht="20.25" customHeight="1">
-      <c r="A38" s="43"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="46"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="49"/>
     </row>
     <row r="39" ht="20.25" customHeight="1">
-      <c r="A39" s="43"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="46"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="49"/>
     </row>
     <row r="40" ht="20.25" customHeight="1">
-      <c r="A40" s="44"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="48"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="49"/>
     </row>
     <row r="41" ht="20.25" customHeight="1">
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="51"/>
     </row>
     <row r="42" ht="20.25" customHeight="1">
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+    </row>
+    <row r="43" ht="20.25" customHeight="1">
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="39"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="39"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="39"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="39"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="39"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="39"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
+      <c r="H108" s="39"/>
+      <c r="I108" s="39"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="H109" s="36"/>
-      <c r="I109" s="36"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="39"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="39"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="39"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="H112" s="36"/>
-      <c r="I112" s="36"/>
+      <c r="H112" s="39"/>
+      <c r="I112" s="39"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="39"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="H114" s="36"/>
-      <c r="I114" s="36"/>
+      <c r="H114" s="39"/>
+      <c r="I114" s="39"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="H115" s="36"/>
-      <c r="I115" s="36"/>
+      <c r="H115" s="39"/>
+      <c r="I115" s="39"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="H116" s="36"/>
-      <c r="I116" s="36"/>
+      <c r="H116" s="39"/>
+      <c r="I116" s="39"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="H117" s="36"/>
-      <c r="I117" s="36"/>
+      <c r="H117" s="39"/>
+      <c r="I117" s="39"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="H118" s="36"/>
-      <c r="I118" s="36"/>
+      <c r="H118" s="39"/>
+      <c r="I118" s="39"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="H119" s="36"/>
-      <c r="I119" s="36"/>
+      <c r="H119" s="39"/>
+      <c r="I119" s="39"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="H120" s="36"/>
-      <c r="I120" s="36"/>
+      <c r="H120" s="39"/>
+      <c r="I120" s="39"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="39"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="H122" s="36"/>
-      <c r="I122" s="36"/>
+      <c r="H122" s="39"/>
+      <c r="I122" s="39"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="H123" s="36"/>
-      <c r="I123" s="36"/>
+      <c r="H123" s="39"/>
+      <c r="I123" s="39"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="H124" s="36"/>
-      <c r="I124" s="36"/>
+      <c r="H124" s="39"/>
+      <c r="I124" s="39"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="H125" s="36"/>
-      <c r="I125" s="36"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="39"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="H126" s="36"/>
-      <c r="I126" s="36"/>
+      <c r="H126" s="39"/>
+      <c r="I126" s="39"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="H127" s="36"/>
-      <c r="I127" s="36"/>
+      <c r="H127" s="39"/>
+      <c r="I127" s="39"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="H128" s="36"/>
-      <c r="I128" s="36"/>
+      <c r="H128" s="39"/>
+      <c r="I128" s="39"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="H129" s="36"/>
-      <c r="I129" s="36"/>
+      <c r="H129" s="39"/>
+      <c r="I129" s="39"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="H130" s="36"/>
-      <c r="I130" s="36"/>
+      <c r="H130" s="39"/>
+      <c r="I130" s="39"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="H131" s="36"/>
-      <c r="I131" s="36"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="39"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="H132" s="36"/>
-      <c r="I132" s="36"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="39"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="H133" s="36"/>
-      <c r="I133" s="36"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="39"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="H134" s="36"/>
-      <c r="I134" s="36"/>
+      <c r="H134" s="39"/>
+      <c r="I134" s="39"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="H135" s="36"/>
-      <c r="I135" s="36"/>
+      <c r="H135" s="39"/>
+      <c r="I135" s="39"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="H136" s="36"/>
-      <c r="I136" s="36"/>
+      <c r="H136" s="39"/>
+      <c r="I136" s="39"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="H137" s="36"/>
-      <c r="I137" s="36"/>
+      <c r="H137" s="39"/>
+      <c r="I137" s="39"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="H138" s="36"/>
-      <c r="I138" s="36"/>
+      <c r="H138" s="39"/>
+      <c r="I138" s="39"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="H139" s="36"/>
-      <c r="I139" s="36"/>
+      <c r="H139" s="39"/>
+      <c r="I139" s="39"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="H140" s="36"/>
-      <c r="I140" s="36"/>
+      <c r="H140" s="39"/>
+      <c r="I140" s="39"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="H141" s="36"/>
-      <c r="I141" s="36"/>
+      <c r="H141" s="39"/>
+      <c r="I141" s="39"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="H142" s="36"/>
-      <c r="I142" s="36"/>
+      <c r="H142" s="39"/>
+      <c r="I142" s="39"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="H143" s="36"/>
-      <c r="I143" s="36"/>
+      <c r="H143" s="39"/>
+      <c r="I143" s="39"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="H144" s="36"/>
-      <c r="I144" s="36"/>
+      <c r="H144" s="39"/>
+      <c r="I144" s="39"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="H145" s="36"/>
-      <c r="I145" s="36"/>
+      <c r="H145" s="39"/>
+      <c r="I145" s="39"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="H146" s="36"/>
-      <c r="I146" s="36"/>
+      <c r="H146" s="39"/>
+      <c r="I146" s="39"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="H147" s="36"/>
-      <c r="I147" s="36"/>
+      <c r="H147" s="39"/>
+      <c r="I147" s="39"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="H148" s="36"/>
-      <c r="I148" s="36"/>
+      <c r="H148" s="39"/>
+      <c r="I148" s="39"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="H149" s="36"/>
-      <c r="I149" s="36"/>
+      <c r="H149" s="39"/>
+      <c r="I149" s="39"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="H150" s="36"/>
-      <c r="I150" s="36"/>
+      <c r="H150" s="39"/>
+      <c r="I150" s="39"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="H151" s="36"/>
-      <c r="I151" s="36"/>
+      <c r="H151" s="39"/>
+      <c r="I151" s="39"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="H152" s="36"/>
-      <c r="I152" s="36"/>
+      <c r="H152" s="39"/>
+      <c r="I152" s="39"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="H153" s="36"/>
-      <c r="I153" s="36"/>
+      <c r="H153" s="39"/>
+      <c r="I153" s="39"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="H154" s="36"/>
-      <c r="I154" s="36"/>
+      <c r="H154" s="39"/>
+      <c r="I154" s="39"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="H155" s="36"/>
-      <c r="I155" s="36"/>
+      <c r="H155" s="39"/>
+      <c r="I155" s="39"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="H156" s="36"/>
-      <c r="I156" s="36"/>
+      <c r="H156" s="39"/>
+      <c r="I156" s="39"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="H157" s="36"/>
-      <c r="I157" s="36"/>
+      <c r="H157" s="39"/>
+      <c r="I157" s="39"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="H158" s="36"/>
-      <c r="I158" s="36"/>
+      <c r="H158" s="39"/>
+      <c r="I158" s="39"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="H159" s="36"/>
-      <c r="I159" s="36"/>
+      <c r="H159" s="39"/>
+      <c r="I159" s="39"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="H160" s="36"/>
-      <c r="I160" s="36"/>
+      <c r="H160" s="39"/>
+      <c r="I160" s="39"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="H161" s="36"/>
-      <c r="I161" s="36"/>
+      <c r="H161" s="39"/>
+      <c r="I161" s="39"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="H162" s="36"/>
-      <c r="I162" s="36"/>
+      <c r="H162" s="39"/>
+      <c r="I162" s="39"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="H163" s="36"/>
-      <c r="I163" s="36"/>
+      <c r="H163" s="39"/>
+      <c r="I163" s="39"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="H164" s="36"/>
-      <c r="I164" s="36"/>
+      <c r="H164" s="39"/>
+      <c r="I164" s="39"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="H165" s="36"/>
-      <c r="I165" s="36"/>
+      <c r="H165" s="39"/>
+      <c r="I165" s="39"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="H166" s="36"/>
-      <c r="I166" s="36"/>
+      <c r="H166" s="39"/>
+      <c r="I166" s="39"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="H167" s="36"/>
-      <c r="I167" s="36"/>
+      <c r="H167" s="39"/>
+      <c r="I167" s="39"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="H168" s="36"/>
-      <c r="I168" s="36"/>
+      <c r="H168" s="39"/>
+      <c r="I168" s="39"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="H169" s="36"/>
-      <c r="I169" s="36"/>
+      <c r="H169" s="39"/>
+      <c r="I169" s="39"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="H170" s="36"/>
-      <c r="I170" s="36"/>
+      <c r="H170" s="39"/>
+      <c r="I170" s="39"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="H171" s="36"/>
-      <c r="I171" s="36"/>
+      <c r="H171" s="39"/>
+      <c r="I171" s="39"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="H172" s="36"/>
-      <c r="I172" s="36"/>
+      <c r="H172" s="39"/>
+      <c r="I172" s="39"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="H173" s="36"/>
-      <c r="I173" s="36"/>
+      <c r="H173" s="39"/>
+      <c r="I173" s="39"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="H174" s="36"/>
-      <c r="I174" s="36"/>
+      <c r="H174" s="39"/>
+      <c r="I174" s="39"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="H175" s="36"/>
-      <c r="I175" s="36"/>
+      <c r="H175" s="39"/>
+      <c r="I175" s="39"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="H176" s="36"/>
-      <c r="I176" s="36"/>
+      <c r="H176" s="39"/>
+      <c r="I176" s="39"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="H177" s="36"/>
-      <c r="I177" s="36"/>
+      <c r="H177" s="39"/>
+      <c r="I177" s="39"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="H178" s="36"/>
-      <c r="I178" s="36"/>
+      <c r="H178" s="39"/>
+      <c r="I178" s="39"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="H179" s="36"/>
-      <c r="I179" s="36"/>
+      <c r="H179" s="39"/>
+      <c r="I179" s="39"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="H180" s="36"/>
-      <c r="I180" s="36"/>
+      <c r="H180" s="39"/>
+      <c r="I180" s="39"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="H181" s="36"/>
-      <c r="I181" s="36"/>
+      <c r="H181" s="39"/>
+      <c r="I181" s="39"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="H182" s="36"/>
-      <c r="I182" s="36"/>
+      <c r="H182" s="39"/>
+      <c r="I182" s="39"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="H183" s="36"/>
-      <c r="I183" s="36"/>
+      <c r="H183" s="39"/>
+      <c r="I183" s="39"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="H184" s="36"/>
-      <c r="I184" s="36"/>
+      <c r="H184" s="39"/>
+      <c r="I184" s="39"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="H185" s="36"/>
-      <c r="I185" s="36"/>
+      <c r="H185" s="39"/>
+      <c r="I185" s="39"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="H186" s="36"/>
-      <c r="I186" s="36"/>
+      <c r="H186" s="39"/>
+      <c r="I186" s="39"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="H187" s="36"/>
-      <c r="I187" s="36"/>
+      <c r="H187" s="39"/>
+      <c r="I187" s="39"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="H188" s="36"/>
-      <c r="I188" s="36"/>
+      <c r="H188" s="39"/>
+      <c r="I188" s="39"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="H189" s="36"/>
-      <c r="I189" s="36"/>
+      <c r="H189" s="39"/>
+      <c r="I189" s="39"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="H190" s="36"/>
-      <c r="I190" s="36"/>
+      <c r="H190" s="39"/>
+      <c r="I190" s="39"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="H191" s="36"/>
-      <c r="I191" s="36"/>
+      <c r="H191" s="39"/>
+      <c r="I191" s="39"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="H192" s="36"/>
-      <c r="I192" s="36"/>
+      <c r="H192" s="39"/>
+      <c r="I192" s="39"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="H193" s="36"/>
-      <c r="I193" s="36"/>
+      <c r="H193" s="39"/>
+      <c r="I193" s="39"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="H194" s="36"/>
-      <c r="I194" s="36"/>
+      <c r="H194" s="39"/>
+      <c r="I194" s="39"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="H195" s="36"/>
-      <c r="I195" s="36"/>
+      <c r="H195" s="39"/>
+      <c r="I195" s="39"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="H196" s="36"/>
-      <c r="I196" s="36"/>
+      <c r="H196" s="39"/>
+      <c r="I196" s="39"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="H197" s="36"/>
-      <c r="I197" s="36"/>
+      <c r="H197" s="39"/>
+      <c r="I197" s="39"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="H198" s="36"/>
-      <c r="I198" s="36"/>
+      <c r="H198" s="39"/>
+      <c r="I198" s="39"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="H199" s="36"/>
-      <c r="I199" s="36"/>
+      <c r="H199" s="39"/>
+      <c r="I199" s="39"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="H200" s="36"/>
-      <c r="I200" s="36"/>
+      <c r="H200" s="39"/>
+      <c r="I200" s="39"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="H201" s="36"/>
-      <c r="I201" s="36"/>
+      <c r="H201" s="39"/>
+      <c r="I201" s="39"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="H202" s="36"/>
-      <c r="I202" s="36"/>
+      <c r="H202" s="39"/>
+      <c r="I202" s="39"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="H203" s="36"/>
-      <c r="I203" s="36"/>
+      <c r="H203" s="39"/>
+      <c r="I203" s="39"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="H204" s="36"/>
-      <c r="I204" s="36"/>
+      <c r="H204" s="39"/>
+      <c r="I204" s="39"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="H205" s="36"/>
-      <c r="I205" s="36"/>
+      <c r="H205" s="39"/>
+      <c r="I205" s="39"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="H206" s="36"/>
-      <c r="I206" s="36"/>
+      <c r="H206" s="39"/>
+      <c r="I206" s="39"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="H207" s="36"/>
-      <c r="I207" s="36"/>
+      <c r="H207" s="39"/>
+      <c r="I207" s="39"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="H208" s="36"/>
-      <c r="I208" s="36"/>
+      <c r="H208" s="39"/>
+      <c r="I208" s="39"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="H209" s="36"/>
-      <c r="I209" s="36"/>
+      <c r="H209" s="39"/>
+      <c r="I209" s="39"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="H210" s="36"/>
-      <c r="I210" s="36"/>
+      <c r="H210" s="39"/>
+      <c r="I210" s="39"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="H211" s="36"/>
-      <c r="I211" s="36"/>
+      <c r="H211" s="39"/>
+      <c r="I211" s="39"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="H212" s="36"/>
-      <c r="I212" s="36"/>
+      <c r="H212" s="39"/>
+      <c r="I212" s="39"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="H213" s="36"/>
-      <c r="I213" s="36"/>
+      <c r="H213" s="39"/>
+      <c r="I213" s="39"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="H214" s="36"/>
-      <c r="I214" s="36"/>
+      <c r="H214" s="39"/>
+      <c r="I214" s="39"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="H215" s="36"/>
-      <c r="I215" s="36"/>
+      <c r="H215" s="39"/>
+      <c r="I215" s="39"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="H216" s="36"/>
-      <c r="I216" s="36"/>
+      <c r="H216" s="39"/>
+      <c r="I216" s="39"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="H217" s="36"/>
-      <c r="I217" s="36"/>
+      <c r="H217" s="39"/>
+      <c r="I217" s="39"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="H218" s="36"/>
-      <c r="I218" s="36"/>
+      <c r="H218" s="39"/>
+      <c r="I218" s="39"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="H219" s="36"/>
-      <c r="I219" s="36"/>
+      <c r="H219" s="39"/>
+      <c r="I219" s="39"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="H220" s="36"/>
-      <c r="I220" s="36"/>
+      <c r="H220" s="39"/>
+      <c r="I220" s="39"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -7933,6 +8052,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.9843055605888367" footer="0.0" header="0.0" left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7956,116 +8078,127 @@
     <col customWidth="1" min="1" max="8" width="18.86"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50.25" customHeight="1">
+    <row r="1" ht="40.5" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" ht="50.25" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="C2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="D2" s="36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" ht="30.0" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" ht="30.0" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" ht="30.0" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" ht="30.0" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" ht="30.0" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" ht="30.0" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" ht="30.0" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="36"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+    </row>
+    <row r="10" ht="30.0" customHeight="1">
+      <c r="A10" s="42"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="39"/>
+    </row>
     <row r="12" ht="15.75" customHeight="1"/>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -9056,6 +9189,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.9843055605888367" footer="0.0" header="0.0" left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9080,353 +9216,368 @@
     <col customWidth="1" min="2" max="12" width="19.0"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50.25" customHeight="1">
+    <row r="1" ht="40.5" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="34"/>
+    </row>
+    <row r="2" ht="50.25" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="B2" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="C2" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="D2" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="E2" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="F2" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="G2" s="52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" ht="21.75" customHeight="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="51"/>
+      <c r="H2" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" ht="21.75" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="51"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="54"/>
     </row>
     <row r="4" ht="21.75" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="51"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" ht="21.75" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="51"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="54"/>
     </row>
     <row r="6" ht="21.75" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="51"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" ht="21.75" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="51"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" ht="21.75" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="51"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" ht="21.75" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="51"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" ht="21.75" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="51"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" ht="21.75" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="51"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="54"/>
     </row>
     <row r="12" ht="21.75" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="51"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="54"/>
     </row>
     <row r="13" ht="21.75" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="51"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="54"/>
     </row>
     <row r="14" ht="21.75" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="51"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="54"/>
     </row>
     <row r="15" ht="21.75" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="51"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="54"/>
     </row>
     <row r="16" ht="21.75" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="51"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="54"/>
     </row>
     <row r="17" ht="21.75" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="51"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="54"/>
     </row>
     <row r="18" ht="21.75" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="51"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="54"/>
     </row>
     <row r="19" ht="21.75" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="51"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="54"/>
     </row>
     <row r="20" ht="21.75" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="51"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="54"/>
     </row>
     <row r="21" ht="21.75" customHeight="1">
-      <c r="A21" s="35"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="51"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="54"/>
     </row>
     <row r="22" ht="21.75" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="51"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="54"/>
     </row>
     <row r="23" ht="21.75" customHeight="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="52"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="54"/>
+    </row>
+    <row r="24" ht="21.75" customHeight="1">
+      <c r="A24" s="42"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="55"/>
+    </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
@@ -10404,6 +10555,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.9843055605888367" footer="0.0" header="0.0" left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -69,7 +69,7 @@
     <t>비 고</t>
   </si>
   <si>
-    <t>투입인원수 산정기준</t>
+    <t>투입인원 및 내역</t>
   </si>
   <si>
     <t>업 무 구 분</t>
@@ -216,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -241,6 +241,12 @@
       <sz val="25.0"/>
       <color rgb="FF000000"/>
       <name val="HY헤드라인M"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.0"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
     </font>
     <font>
       <b/>
@@ -517,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -602,7 +608,7 @@
     <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -614,7 +620,7 @@
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="25" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -623,67 +629,70 @@
     <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="28" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1234,7 +1243,7 @@
       <c r="M19" s="18"/>
       <c r="N19" s="19"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1269,7 +1278,7 @@
       <c r="M21" s="18"/>
       <c r="N21" s="19"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" ht="24.0" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -4549,7 +4558,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="40.5" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="33"/>
@@ -4587,7 +4596,7 @@
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="46"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -4597,7 +4606,7 @@
       <c r="H3" s="41"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="46"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -4607,7 +4616,7 @@
       <c r="H4" s="41"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
@@ -4617,7 +4626,7 @@
       <c r="H5" s="41"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -4627,7 +4636,7 @@
       <c r="H6" s="41"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="46"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -4637,7 +4646,7 @@
       <c r="H7" s="41"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="46"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
@@ -4647,7 +4656,7 @@
       <c r="H8" s="41"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="46"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -4657,7 +4666,7 @@
       <c r="H9" s="41"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="46"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
@@ -4667,7 +4676,7 @@
       <c r="H10" s="41"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
@@ -4677,7 +4686,7 @@
       <c r="H11" s="41"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
@@ -4687,7 +4696,7 @@
       <c r="H12" s="41"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
@@ -4697,7 +4706,7 @@
       <c r="H13" s="41"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="46"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
@@ -4707,7 +4716,7 @@
       <c r="H14" s="41"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="46"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -4717,7 +4726,7 @@
       <c r="H15" s="41"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
@@ -4727,7 +4736,7 @@
       <c r="H16" s="41"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="46"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
@@ -4737,7 +4746,7 @@
       <c r="H17" s="41"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="46"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
@@ -4747,7 +4756,7 @@
       <c r="H18" s="41"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="46"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -4757,7 +4766,7 @@
       <c r="H19" s="41"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="46"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
@@ -4767,7 +4776,7 @@
       <c r="H20" s="41"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="46"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
@@ -4777,7 +4786,7 @@
       <c r="H21" s="41"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
@@ -4787,7 +4796,7 @@
       <c r="H22" s="41"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="46"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
@@ -4797,7 +4806,7 @@
       <c r="H23" s="41"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="46"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="40"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -4807,7 +4816,7 @@
       <c r="H24" s="41"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="46"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
@@ -4817,7 +4826,7 @@
       <c r="H25" s="41"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="46"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -4827,7 +4836,7 @@
       <c r="H26" s="41"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="46"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
@@ -4837,7 +4846,7 @@
       <c r="H27" s="41"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="46"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="40"/>
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
@@ -4847,7 +4856,7 @@
       <c r="H28" s="41"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="46"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
@@ -4857,7 +4866,7 @@
       <c r="H29" s="41"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="47"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
@@ -5932,628 +5941,628 @@
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="50"/>
     </row>
     <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" ht="20.25" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" ht="20.25" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="50"/>
     </row>
     <row r="8" ht="20.25" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="50"/>
     </row>
     <row r="9" ht="20.25" customHeight="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="50"/>
     </row>
     <row r="10" ht="20.25" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
     </row>
     <row r="11" ht="20.25" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" ht="20.25" customHeight="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" ht="20.25" customHeight="1">
-      <c r="A13" s="46"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="50"/>
     </row>
     <row r="14" ht="20.25" customHeight="1">
-      <c r="A14" s="46"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="50"/>
     </row>
     <row r="15" ht="20.25" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="50"/>
     </row>
     <row r="16" ht="20.25" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="50"/>
     </row>
     <row r="17" ht="20.25" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="50"/>
     </row>
     <row r="18" ht="20.25" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="50"/>
     </row>
     <row r="19" ht="20.25" customHeight="1">
-      <c r="A19" s="46"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="50"/>
     </row>
     <row r="20" ht="20.25" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="50"/>
     </row>
     <row r="21" ht="20.25" customHeight="1">
-      <c r="A21" s="46"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="50"/>
     </row>
     <row r="22" ht="20.25" customHeight="1">
-      <c r="A22" s="46"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="50"/>
     </row>
     <row r="23" ht="20.25" customHeight="1">
-      <c r="A23" s="46"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="39"/>
       <c r="I23" s="39"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="50"/>
     </row>
     <row r="24" ht="20.25" customHeight="1">
-      <c r="A24" s="46"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
       <c r="H24" s="39"/>
       <c r="I24" s="39"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="50"/>
     </row>
     <row r="25" ht="20.25" customHeight="1">
-      <c r="A25" s="46"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="39"/>
       <c r="I25" s="39"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="50"/>
     </row>
     <row r="26" ht="20.25" customHeight="1">
-      <c r="A26" s="46"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="50"/>
     </row>
     <row r="27" ht="20.25" customHeight="1">
-      <c r="A27" s="46"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="50"/>
     </row>
     <row r="28" ht="20.25" customHeight="1">
-      <c r="A28" s="46"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
     </row>
     <row r="29" ht="20.25" customHeight="1">
-      <c r="A29" s="46"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="39"/>
       <c r="I29" s="39"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="50"/>
     </row>
     <row r="30" ht="20.25" customHeight="1">
-      <c r="A30" s="46"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="39"/>
       <c r="I30" s="39"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="50"/>
     </row>
     <row r="31" ht="20.25" customHeight="1">
-      <c r="A31" s="46"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="39"/>
       <c r="I31" s="39"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="50"/>
     </row>
     <row r="32" ht="20.25" customHeight="1">
-      <c r="A32" s="46"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="39"/>
       <c r="I32" s="39"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="50"/>
     </row>
     <row r="33" ht="20.25" customHeight="1">
-      <c r="A33" s="46"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="50"/>
     </row>
     <row r="34" ht="20.25" customHeight="1">
-      <c r="A34" s="46"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
       <c r="H34" s="39"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="50"/>
     </row>
     <row r="35" ht="20.25" customHeight="1">
-      <c r="A35" s="46"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
       <c r="H35" s="39"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="50"/>
     </row>
     <row r="36" ht="20.25" customHeight="1">
-      <c r="A36" s="46"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
       <c r="H36" s="39"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="50"/>
     </row>
     <row r="37" ht="20.25" customHeight="1">
-      <c r="A37" s="46"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
       <c r="H37" s="39"/>
       <c r="I37" s="39"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="50"/>
     </row>
     <row r="38" ht="20.25" customHeight="1">
-      <c r="A38" s="46"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
       <c r="H38" s="39"/>
       <c r="I38" s="39"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="50"/>
     </row>
     <row r="39" ht="20.25" customHeight="1">
-      <c r="A39" s="46"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
       <c r="H39" s="39"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="50"/>
     </row>
     <row r="40" ht="20.25" customHeight="1">
-      <c r="A40" s="46"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
       <c r="H40" s="39"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="50"/>
     </row>
     <row r="41" ht="20.25" customHeight="1">
-      <c r="A41" s="47"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
       <c r="H41" s="43"/>
       <c r="I41" s="43"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="52"/>
     </row>
     <row r="42" ht="20.25" customHeight="1">
       <c r="H42" s="39"/>
@@ -9236,37 +9245,37 @@
       <c r="A2" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="54" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9282,7 +9291,7 @@
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
-      <c r="L3" s="54"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" ht="21.75" customHeight="1">
       <c r="A4" s="38"/>
@@ -9296,7 +9305,7 @@
       <c r="I4" s="40"/>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
-      <c r="L4" s="54"/>
+      <c r="L4" s="55"/>
     </row>
     <row r="5" ht="21.75" customHeight="1">
       <c r="A5" s="38"/>
@@ -9310,7 +9319,7 @@
       <c r="I5" s="40"/>
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
-      <c r="L5" s="54"/>
+      <c r="L5" s="55"/>
     </row>
     <row r="6" ht="21.75" customHeight="1">
       <c r="A6" s="38"/>
@@ -9324,7 +9333,7 @@
       <c r="I6" s="40"/>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
-      <c r="L6" s="54"/>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" ht="21.75" customHeight="1">
       <c r="A7" s="38"/>
@@ -9338,7 +9347,7 @@
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
-      <c r="L7" s="54"/>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" ht="21.75" customHeight="1">
       <c r="A8" s="38"/>
@@ -9352,7 +9361,7 @@
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
       <c r="K8" s="40"/>
-      <c r="L8" s="54"/>
+      <c r="L8" s="55"/>
     </row>
     <row r="9" ht="21.75" customHeight="1">
       <c r="A9" s="38"/>
@@ -9366,7 +9375,7 @@
       <c r="I9" s="40"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
-      <c r="L9" s="54"/>
+      <c r="L9" s="55"/>
     </row>
     <row r="10" ht="21.75" customHeight="1">
       <c r="A10" s="38"/>
@@ -9380,7 +9389,7 @@
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
       <c r="K10" s="40"/>
-      <c r="L10" s="54"/>
+      <c r="L10" s="55"/>
     </row>
     <row r="11" ht="21.75" customHeight="1">
       <c r="A11" s="38"/>
@@ -9394,7 +9403,7 @@
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
-      <c r="L11" s="54"/>
+      <c r="L11" s="55"/>
     </row>
     <row r="12" ht="21.75" customHeight="1">
       <c r="A12" s="38"/>
@@ -9408,7 +9417,7 @@
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
-      <c r="L12" s="54"/>
+      <c r="L12" s="55"/>
     </row>
     <row r="13" ht="21.75" customHeight="1">
       <c r="A13" s="38"/>
@@ -9422,7 +9431,7 @@
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
-      <c r="L13" s="54"/>
+      <c r="L13" s="55"/>
     </row>
     <row r="14" ht="21.75" customHeight="1">
       <c r="A14" s="38"/>
@@ -9436,7 +9445,7 @@
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
-      <c r="L14" s="54"/>
+      <c r="L14" s="55"/>
     </row>
     <row r="15" ht="21.75" customHeight="1">
       <c r="A15" s="38"/>
@@ -9450,7 +9459,7 @@
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
-      <c r="L15" s="54"/>
+      <c r="L15" s="55"/>
     </row>
     <row r="16" ht="21.75" customHeight="1">
       <c r="A16" s="38"/>
@@ -9464,7 +9473,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
-      <c r="L16" s="54"/>
+      <c r="L16" s="55"/>
     </row>
     <row r="17" ht="21.75" customHeight="1">
       <c r="A17" s="38"/>
@@ -9478,7 +9487,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
-      <c r="L17" s="54"/>
+      <c r="L17" s="55"/>
     </row>
     <row r="18" ht="21.75" customHeight="1">
       <c r="A18" s="38"/>
@@ -9492,7 +9501,7 @@
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
-      <c r="L18" s="54"/>
+      <c r="L18" s="55"/>
     </row>
     <row r="19" ht="21.75" customHeight="1">
       <c r="A19" s="38"/>
@@ -9506,7 +9515,7 @@
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
-      <c r="L19" s="54"/>
+      <c r="L19" s="55"/>
     </row>
     <row r="20" ht="21.75" customHeight="1">
       <c r="A20" s="38"/>
@@ -9520,7 +9529,7 @@
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
       <c r="K20" s="40"/>
-      <c r="L20" s="54"/>
+      <c r="L20" s="55"/>
     </row>
     <row r="21" ht="21.75" customHeight="1">
       <c r="A21" s="38"/>
@@ -9534,7 +9543,7 @@
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
-      <c r="L21" s="54"/>
+      <c r="L21" s="55"/>
     </row>
     <row r="22" ht="21.75" customHeight="1">
       <c r="A22" s="38"/>
@@ -9548,7 +9557,7 @@
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
       <c r="K22" s="40"/>
-      <c r="L22" s="54"/>
+      <c r="L22" s="55"/>
     </row>
     <row r="23" ht="21.75" customHeight="1">
       <c r="A23" s="38"/>
@@ -9562,7 +9571,7 @@
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
       <c r="K23" s="40"/>
-      <c r="L23" s="54"/>
+      <c r="L23" s="55"/>
     </row>
     <row r="24" ht="21.75" customHeight="1">
       <c r="A24" s="42"/>
@@ -9576,7 +9585,7 @@
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
       <c r="K24" s="44"/>
-      <c r="L24" s="55"/>
+      <c r="L24" s="56"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -523,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -661,9 +661,6 @@
     </xf>
     <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="25" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -2371,7 +2368,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="2" width="21.71"/>
+    <col customWidth="1" min="2" max="2" width="28.14"/>
     <col customWidth="1" min="3" max="8" width="16.0"/>
   </cols>
   <sheetData>
@@ -4558,7 +4555,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="40.5" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="32" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="33"/>
@@ -4596,7 +4593,7 @@
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="47"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -4606,7 +4603,7 @@
       <c r="H3" s="41"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="47"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -4616,7 +4613,7 @@
       <c r="H4" s="41"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="47"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
@@ -4626,7 +4623,7 @@
       <c r="H5" s="41"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="47"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -4636,7 +4633,7 @@
       <c r="H6" s="41"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="47"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -4646,7 +4643,7 @@
       <c r="H7" s="41"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
@@ -4656,7 +4653,7 @@
       <c r="H8" s="41"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="47"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -4666,7 +4663,7 @@
       <c r="H9" s="41"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="47"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
@@ -4676,7 +4673,7 @@
       <c r="H10" s="41"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="47"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
@@ -4686,7 +4683,7 @@
       <c r="H11" s="41"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="47"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
@@ -4696,7 +4693,7 @@
       <c r="H12" s="41"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="47"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
@@ -4706,7 +4703,7 @@
       <c r="H13" s="41"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="47"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
@@ -4716,7 +4713,7 @@
       <c r="H14" s="41"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="47"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -4726,7 +4723,7 @@
       <c r="H15" s="41"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="47"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
@@ -4736,7 +4733,7 @@
       <c r="H16" s="41"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="47"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
@@ -4746,7 +4743,7 @@
       <c r="H17" s="41"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="47"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
@@ -4756,7 +4753,7 @@
       <c r="H18" s="41"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="47"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -4766,7 +4763,7 @@
       <c r="H19" s="41"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="47"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
@@ -4776,7 +4773,7 @@
       <c r="H20" s="41"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="47"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
@@ -4786,7 +4783,7 @@
       <c r="H21" s="41"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="47"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
@@ -4796,7 +4793,7 @@
       <c r="H22" s="41"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="47"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
@@ -4806,7 +4803,7 @@
       <c r="H23" s="41"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="47"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="40"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -4816,7 +4813,7 @@
       <c r="H24" s="41"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="47"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
@@ -4826,7 +4823,7 @@
       <c r="H25" s="41"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="47"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -4836,7 +4833,7 @@
       <c r="H26" s="41"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="47"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
@@ -4846,7 +4843,7 @@
       <c r="H27" s="41"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="47"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="40"/>
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
@@ -4856,7 +4853,7 @@
       <c r="H28" s="41"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="47"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
@@ -4866,16 +4863,25 @@
       <c r="H29" s="41"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="47"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+    </row>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -5853,7 +5859,7 @@
   <pageMargins bottom="0.9843055605888367" footer="0.0" header="0.0" left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="30" man="1"/>
+    <brk id="31" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" man="1"/>
@@ -5941,638 +5947,650 @@
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="50"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="49"/>
     </row>
     <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="50"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" ht="20.25" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="50"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" ht="20.25" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="50"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="49"/>
     </row>
     <row r="8" ht="20.25" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="50"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" ht="20.25" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="50"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="49"/>
     </row>
     <row r="10" ht="20.25" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="50"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="49"/>
     </row>
     <row r="11" ht="20.25" customHeight="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" ht="20.25" customHeight="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="49"/>
     </row>
     <row r="13" ht="20.25" customHeight="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="49"/>
     </row>
     <row r="14" ht="20.25" customHeight="1">
-      <c r="A14" s="47"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="50"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="49"/>
     </row>
     <row r="15" ht="20.25" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="50"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="49"/>
     </row>
     <row r="16" ht="20.25" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="50"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="49"/>
     </row>
     <row r="17" ht="20.25" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="50"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="49"/>
     </row>
     <row r="18" ht="20.25" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="50"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="49"/>
     </row>
     <row r="19" ht="20.25" customHeight="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="50"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="49"/>
     </row>
     <row r="20" ht="20.25" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="50"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="49"/>
     </row>
     <row r="21" ht="20.25" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="50"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="49"/>
     </row>
     <row r="22" ht="20.25" customHeight="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="50"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="49"/>
     </row>
     <row r="23" ht="20.25" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="39"/>
       <c r="I23" s="39"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="50"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="49"/>
     </row>
     <row r="24" ht="20.25" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="39"/>
       <c r="I24" s="39"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="50"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="49"/>
     </row>
     <row r="25" ht="20.25" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
       <c r="H25" s="39"/>
       <c r="I25" s="39"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="50"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="49"/>
     </row>
     <row r="26" ht="20.25" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="50"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="49"/>
     </row>
     <row r="27" ht="20.25" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="50"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="49"/>
     </row>
     <row r="28" ht="20.25" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="50"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="49"/>
     </row>
     <row r="29" ht="20.25" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
       <c r="H29" s="39"/>
       <c r="I29" s="39"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="50"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="49"/>
     </row>
     <row r="30" ht="20.25" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
       <c r="H30" s="39"/>
       <c r="I30" s="39"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="50"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="49"/>
     </row>
     <row r="31" ht="20.25" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="39"/>
       <c r="I31" s="39"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="50"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="49"/>
     </row>
     <row r="32" ht="20.25" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="39"/>
       <c r="I32" s="39"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="50"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="49"/>
     </row>
     <row r="33" ht="20.25" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="50"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="49"/>
     </row>
     <row r="34" ht="20.25" customHeight="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
       <c r="H34" s="39"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="50"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="49"/>
     </row>
     <row r="35" ht="20.25" customHeight="1">
-      <c r="A35" s="47"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
       <c r="H35" s="39"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="50"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="49"/>
     </row>
     <row r="36" ht="20.25" customHeight="1">
-      <c r="A36" s="47"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
       <c r="H36" s="39"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="50"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="49"/>
     </row>
     <row r="37" ht="20.25" customHeight="1">
-      <c r="A37" s="47"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
       <c r="H37" s="39"/>
       <c r="I37" s="39"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="50"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="49"/>
     </row>
     <row r="38" ht="20.25" customHeight="1">
-      <c r="A38" s="47"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
       <c r="H38" s="39"/>
       <c r="I38" s="39"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="50"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="49"/>
     </row>
     <row r="39" ht="20.25" customHeight="1">
-      <c r="A39" s="47"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
       <c r="H39" s="39"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="50"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="49"/>
     </row>
     <row r="40" ht="20.25" customHeight="1">
-      <c r="A40" s="47"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
       <c r="H40" s="39"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="50"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="49"/>
     </row>
     <row r="41" ht="20.25" customHeight="1">
-      <c r="A41" s="48"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="52"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="49"/>
     </row>
     <row r="42" ht="20.25" customHeight="1">
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="51"/>
     </row>
     <row r="43" ht="20.25" customHeight="1">
       <c r="H43" s="39"/>
       <c r="I43" s="39"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" ht="20.25" customHeight="1">
       <c r="H44" s="39"/>
       <c r="I44" s="39"/>
     </row>
@@ -9245,37 +9263,37 @@
       <c r="A2" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="53" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9291,7 +9309,7 @@
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
-      <c r="L3" s="55"/>
+      <c r="L3" s="54"/>
     </row>
     <row r="4" ht="21.75" customHeight="1">
       <c r="A4" s="38"/>
@@ -9305,7 +9323,7 @@
       <c r="I4" s="40"/>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
-      <c r="L4" s="55"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" ht="21.75" customHeight="1">
       <c r="A5" s="38"/>
@@ -9319,7 +9337,7 @@
       <c r="I5" s="40"/>
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
-      <c r="L5" s="55"/>
+      <c r="L5" s="54"/>
     </row>
     <row r="6" ht="21.75" customHeight="1">
       <c r="A6" s="38"/>
@@ -9333,7 +9351,7 @@
       <c r="I6" s="40"/>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
-      <c r="L6" s="55"/>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" ht="21.75" customHeight="1">
       <c r="A7" s="38"/>
@@ -9347,7 +9365,7 @@
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
-      <c r="L7" s="55"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" ht="21.75" customHeight="1">
       <c r="A8" s="38"/>
@@ -9361,7 +9379,7 @@
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
       <c r="K8" s="40"/>
-      <c r="L8" s="55"/>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" ht="21.75" customHeight="1">
       <c r="A9" s="38"/>
@@ -9375,7 +9393,7 @@
       <c r="I9" s="40"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
-      <c r="L9" s="55"/>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" ht="21.75" customHeight="1">
       <c r="A10" s="38"/>
@@ -9389,7 +9407,7 @@
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
       <c r="K10" s="40"/>
-      <c r="L10" s="55"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" ht="21.75" customHeight="1">
       <c r="A11" s="38"/>
@@ -9403,7 +9421,7 @@
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
-      <c r="L11" s="55"/>
+      <c r="L11" s="54"/>
     </row>
     <row r="12" ht="21.75" customHeight="1">
       <c r="A12" s="38"/>
@@ -9417,7 +9435,7 @@
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
-      <c r="L12" s="55"/>
+      <c r="L12" s="54"/>
     </row>
     <row r="13" ht="21.75" customHeight="1">
       <c r="A13" s="38"/>
@@ -9431,7 +9449,7 @@
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
-      <c r="L13" s="55"/>
+      <c r="L13" s="54"/>
     </row>
     <row r="14" ht="21.75" customHeight="1">
       <c r="A14" s="38"/>
@@ -9445,7 +9463,7 @@
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
-      <c r="L14" s="55"/>
+      <c r="L14" s="54"/>
     </row>
     <row r="15" ht="21.75" customHeight="1">
       <c r="A15" s="38"/>
@@ -9459,7 +9477,7 @@
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
-      <c r="L15" s="55"/>
+      <c r="L15" s="54"/>
     </row>
     <row r="16" ht="21.75" customHeight="1">
       <c r="A16" s="38"/>
@@ -9473,7 +9491,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
-      <c r="L16" s="55"/>
+      <c r="L16" s="54"/>
     </row>
     <row r="17" ht="21.75" customHeight="1">
       <c r="A17" s="38"/>
@@ -9487,7 +9505,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
-      <c r="L17" s="55"/>
+      <c r="L17" s="54"/>
     </row>
     <row r="18" ht="21.75" customHeight="1">
       <c r="A18" s="38"/>
@@ -9501,7 +9519,7 @@
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
-      <c r="L18" s="55"/>
+      <c r="L18" s="54"/>
     </row>
     <row r="19" ht="21.75" customHeight="1">
       <c r="A19" s="38"/>
@@ -9515,7 +9533,7 @@
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
-      <c r="L19" s="55"/>
+      <c r="L19" s="54"/>
     </row>
     <row r="20" ht="21.75" customHeight="1">
       <c r="A20" s="38"/>
@@ -9529,7 +9547,7 @@
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
       <c r="K20" s="40"/>
-      <c r="L20" s="55"/>
+      <c r="L20" s="54"/>
     </row>
     <row r="21" ht="21.75" customHeight="1">
       <c r="A21" s="38"/>
@@ -9543,7 +9561,7 @@
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
-      <c r="L21" s="55"/>
+      <c r="L21" s="54"/>
     </row>
     <row r="22" ht="21.75" customHeight="1">
       <c r="A22" s="38"/>
@@ -9557,7 +9575,7 @@
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
       <c r="K22" s="40"/>
-      <c r="L22" s="55"/>
+      <c r="L22" s="54"/>
     </row>
     <row r="23" ht="21.75" customHeight="1">
       <c r="A23" s="38"/>
@@ -9571,7 +9589,7 @@
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
       <c r="K23" s="40"/>
-      <c r="L23" s="55"/>
+      <c r="L23" s="54"/>
     </row>
     <row r="24" ht="21.75" customHeight="1">
       <c r="A24" s="42"/>
@@ -9585,7 +9603,7 @@
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
       <c r="K24" s="44"/>
-      <c r="L24" s="56"/>
+      <c r="L24" s="55"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
